--- a/list2.xlsx
+++ b/list2.xlsx
@@ -336,7 +336,13 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/list2.xlsx
+++ b/list2.xlsx
@@ -336,13 +336,7 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>